--- a/VentanaLecturaDeExcel/example2.xlsx
+++ b/VentanaLecturaDeExcel/example2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -413,17 +416,17 @@
       <c r="A2" s="2">
         <v>41275</v>
       </c>
-      <c r="B2">
-        <v>-0.258663787924893</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0.9369720810519623</v>
+        <v>-0.09335205424375577</v>
       </c>
       <c r="D2">
-        <v>-0.5955283547614543</v>
+        <v>-0.1068691228804029</v>
       </c>
       <c r="E2">
-        <v>0.8521090264365795</v>
+        <v>-1.490155088501868</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +434,16 @@
         <v>41276</v>
       </c>
       <c r="B3">
-        <v>-0.970273699782722</v>
+        <v>0.8461976416700523</v>
       </c>
       <c r="C3">
-        <v>-0.1043664289890189</v>
+        <v>-1.062526864431128</v>
       </c>
       <c r="D3">
-        <v>-0.08146352416731599</v>
+        <v>0.4700881777145272</v>
       </c>
       <c r="E3">
-        <v>-0.604250513421881</v>
+        <v>-0.790124542333318</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +451,16 @@
         <v>41277</v>
       </c>
       <c r="B4">
-        <v>0.9140885551519748</v>
+        <v>1.392514275501105</v>
       </c>
       <c r="C4">
-        <v>-0.4759170425751871</v>
+        <v>-0.03319909757271365</v>
       </c>
       <c r="D4">
-        <v>-0.4883985896998999</v>
+        <v>-1.908621919425316</v>
       </c>
       <c r="E4">
-        <v>0.7316144659116153</v>
+        <v>-0.3861075615081943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +468,16 @@
         <v>41278</v>
       </c>
       <c r="B5">
-        <v>0.3334842313961083</v>
+        <v>-0.1940014404266789</v>
       </c>
       <c r="C5">
-        <v>2.110777624612186</v>
+        <v>-0.4264533825122025</v>
       </c>
       <c r="D5">
-        <v>-0.1093995104545958</v>
+        <v>1.288087484505838</v>
       </c>
       <c r="E5">
-        <v>-0.1009614301764497</v>
+        <v>-1.527262757292984</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +485,16 @@
         <v>41279</v>
       </c>
       <c r="B6">
-        <v>0.5097981401659254</v>
+        <v>1.286253017223119</v>
       </c>
       <c r="C6">
-        <v>-0.2803796412467099</v>
+        <v>0.02409519753641447</v>
       </c>
       <c r="D6">
-        <v>0.07700112313596401</v>
+        <v>-1.161980836571019</v>
       </c>
       <c r="E6">
-        <v>0.1987220625161114</v>
+        <v>1.129052134490739</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +502,16 @@
         <v>41280</v>
       </c>
       <c r="B7">
-        <v>-0.9760434024073397</v>
+        <v>-0.9695567004133685</v>
       </c>
       <c r="C7">
-        <v>0.1078646911315988</v>
+        <v>-0.5646802855062801</v>
       </c>
       <c r="D7">
-        <v>0.2604813174232443</v>
+        <v>0.9800860639916077</v>
       </c>
       <c r="E7">
-        <v>0.1857499870244537</v>
+        <v>1.078237748301558</v>
       </c>
     </row>
   </sheetData>
